--- a/results/quicksort.xlsx
+++ b/results/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValkCoen\Documents\school\parallel_prog\CSCI4320-FinalProject\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654F0162-F9E1-4368-AF2F-71E7BDB0427C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8A5AD-E90A-45C3-A31C-AC71B9F783EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3D71AC26-5321-4082-A5F7-AC000D8782CE}"/>
+    <workbookView xWindow="1380" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3D71AC26-5321-4082-A5F7-AC000D8782CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,22 +235,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6255010000000001</c:v>
+                  <c:v>1.3309759999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5216780000000001</c:v>
+                  <c:v>2.7796729999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9416599999999997</c:v>
+                  <c:v>5.7972020000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.582269</c:v>
+                  <c:v>12.071699000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.707936</c:v>
+                  <c:v>25.101436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.788241999999997</c:v>
+                  <c:v>52.116008999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01810D8B-B266-420D-AEFA-DD7412AE9D44}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,62 +1469,80 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="D1">
+        <v>1.3309759999999999</v>
+      </c>
+      <c r="E1">
+        <v>2.7796729999999998</v>
+      </c>
+      <c r="F1">
+        <v>5.7972020000000004</v>
+      </c>
+      <c r="G1">
+        <v>12.071699000000001</v>
+      </c>
+      <c r="H1">
+        <v>25.101436</v>
+      </c>
+      <c r="I1">
+        <v>52.116008999999998</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1048576</v>
       </c>
       <c r="B2">
-        <v>1.6255010000000001</v>
+        <v>1.3309759999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>2* A2</f>
         <v>2097152</v>
       </c>
       <c r="B3">
-        <v>3.5216780000000001</v>
+        <v>2.7796729999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="0">2* A3</f>
         <v>4194304</v>
       </c>
       <c r="B4">
-        <v>6.9416599999999997</v>
+        <v>5.7972020000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>8388608</v>
       </c>
       <c r="B5">
-        <v>14.582269</v>
+        <v>12.071699000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>16777216</v>
       </c>
       <c r="B6">
-        <v>29.707936</v>
+        <v>25.101436</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>33554432</v>
       </c>
       <c r="B7">
-        <v>63.788241999999997</v>
+        <v>52.116008999999998</v>
       </c>
     </row>
   </sheetData>
